--- a/data/quotes/alua.xlsx
+++ b/data/quotes/alua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H576"/>
+  <dimension ref="A1:H587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,13 +3014,13 @@
         <v>82</v>
       </c>
       <c r="F92" t="n">
-        <v>20507278.9</v>
+        <v>20163126.5</v>
       </c>
       <c r="G92" t="n">
-        <v>1210</v>
+        <v>500</v>
       </c>
       <c r="H92" t="n">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93">
@@ -3042,13 +3042,13 @@
         <v>82.2</v>
       </c>
       <c r="F93" t="n">
-        <v>45234914.6</v>
+        <v>57805127.3</v>
       </c>
       <c r="G93" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="H93" t="n">
-        <v>741</v>
+        <v>972</v>
       </c>
     </row>
     <row r="94">
@@ -16573,6 +16573,314 @@
       </c>
       <c r="H576" t="n">
         <v>4777</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>869</v>
+      </c>
+      <c r="C577" t="n">
+        <v>884</v>
+      </c>
+      <c r="D577" t="n">
+        <v>895</v>
+      </c>
+      <c r="E577" t="n">
+        <v>856</v>
+      </c>
+      <c r="F577" t="n">
+        <v>951634104.5</v>
+      </c>
+      <c r="G577" t="n">
+        <v>1084400</v>
+      </c>
+      <c r="H577" t="n">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>902.5</v>
+      </c>
+      <c r="C578" t="n">
+        <v>875</v>
+      </c>
+      <c r="D578" t="n">
+        <v>907</v>
+      </c>
+      <c r="E578" t="n">
+        <v>870</v>
+      </c>
+      <c r="F578" t="n">
+        <v>843252407</v>
+      </c>
+      <c r="G578" t="n">
+        <v>939978</v>
+      </c>
+      <c r="H578" t="n">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>919</v>
+      </c>
+      <c r="C579" t="n">
+        <v>903</v>
+      </c>
+      <c r="D579" t="n">
+        <v>923.5</v>
+      </c>
+      <c r="E579" t="n">
+        <v>890</v>
+      </c>
+      <c r="F579" t="n">
+        <v>984813526</v>
+      </c>
+      <c r="G579" t="n">
+        <v>1080910</v>
+      </c>
+      <c r="H579" t="n">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>938</v>
+      </c>
+      <c r="C580" t="n">
+        <v>918</v>
+      </c>
+      <c r="D580" t="n">
+        <v>949.5</v>
+      </c>
+      <c r="E580" t="n">
+        <v>914.5</v>
+      </c>
+      <c r="F580" t="n">
+        <v>1182251724.5</v>
+      </c>
+      <c r="G580" t="n">
+        <v>1265485</v>
+      </c>
+      <c r="H580" t="n">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>966</v>
+      </c>
+      <c r="C581" t="n">
+        <v>937</v>
+      </c>
+      <c r="D581" t="n">
+        <v>972</v>
+      </c>
+      <c r="E581" t="n">
+        <v>925</v>
+      </c>
+      <c r="F581" t="n">
+        <v>1019462117.5</v>
+      </c>
+      <c r="G581" t="n">
+        <v>1078830</v>
+      </c>
+      <c r="H581" t="n">
+        <v>6604</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C582" t="n">
+        <v>972</v>
+      </c>
+      <c r="D582" t="n">
+        <v>1031</v>
+      </c>
+      <c r="E582" t="n">
+        <v>972</v>
+      </c>
+      <c r="F582" t="n">
+        <v>1889732348.5</v>
+      </c>
+      <c r="G582" t="n">
+        <v>1878198</v>
+      </c>
+      <c r="H582" t="n">
+        <v>5948</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C583" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D583" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E583" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F583" t="n">
+        <v>1038857078</v>
+      </c>
+      <c r="G583" t="n">
+        <v>998395</v>
+      </c>
+      <c r="H583" t="n">
+        <v>8863</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1015.5</v>
+      </c>
+      <c r="C584" t="n">
+        <v>1055</v>
+      </c>
+      <c r="D584" t="n">
+        <v>1055</v>
+      </c>
+      <c r="E584" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F584" t="n">
+        <v>886611054.5</v>
+      </c>
+      <c r="G584" t="n">
+        <v>871269</v>
+      </c>
+      <c r="H584" t="n">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C585" t="n">
+        <v>1015.5</v>
+      </c>
+      <c r="D585" t="n">
+        <v>1028.5</v>
+      </c>
+      <c r="E585" t="n">
+        <v>980</v>
+      </c>
+      <c r="F585" t="n">
+        <v>1303010146.5</v>
+      </c>
+      <c r="G585" t="n">
+        <v>1303984</v>
+      </c>
+      <c r="H585" t="n">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1002.5</v>
+      </c>
+      <c r="C586" t="n">
+        <v>990</v>
+      </c>
+      <c r="D586" t="n">
+        <v>1019.5</v>
+      </c>
+      <c r="E586" t="n">
+        <v>990</v>
+      </c>
+      <c r="F586" t="n">
+        <v>194485919</v>
+      </c>
+      <c r="G586" t="n">
+        <v>1</v>
+      </c>
+      <c r="H586" t="n">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1029.5</v>
+      </c>
+      <c r="C587" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D587" t="n">
+        <v>1035</v>
+      </c>
+      <c r="E587" t="n">
+        <v>991.5</v>
+      </c>
+      <c r="F587" t="n">
+        <v>955303045.5</v>
+      </c>
+      <c r="G587" t="n">
+        <v>939249</v>
+      </c>
+      <c r="H587" t="n">
+        <v>2462</v>
       </c>
     </row>
   </sheetData>

--- a/data/quotes/alua.xlsx
+++ b/data/quotes/alua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H587"/>
+  <dimension ref="A1:H592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,13 +3014,13 @@
         <v>82</v>
       </c>
       <c r="F92" t="n">
-        <v>20163126.5</v>
+        <v>20204953.3</v>
       </c>
       <c r="G92" t="n">
-        <v>500</v>
+        <v>7</v>
       </c>
       <c r="H92" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93">
@@ -3042,13 +3042,13 @@
         <v>82.2</v>
       </c>
       <c r="F93" t="n">
-        <v>57805127.3</v>
+        <v>49555690.7</v>
       </c>
       <c r="G93" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H93" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
     </row>
     <row r="94">
@@ -16834,25 +16834,25 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1002.5</v>
+        <v>1030</v>
       </c>
       <c r="C586" t="n">
         <v>990</v>
       </c>
       <c r="D586" t="n">
-        <v>1019.5</v>
+        <v>1034</v>
       </c>
       <c r="E586" t="n">
-        <v>990</v>
+        <v>953</v>
       </c>
       <c r="F586" t="n">
-        <v>194485919</v>
+        <v>962965672</v>
       </c>
       <c r="G586" t="n">
-        <v>1</v>
+        <v>953186</v>
       </c>
       <c r="H586" t="n">
-        <v>1228</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="587">
@@ -16881,6 +16881,146 @@
       </c>
       <c r="H587" t="n">
         <v>2462</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1001.5</v>
+      </c>
+      <c r="C588" t="n">
+        <v>1034</v>
+      </c>
+      <c r="D588" t="n">
+        <v>1035</v>
+      </c>
+      <c r="E588" t="n">
+        <v>995.5</v>
+      </c>
+      <c r="F588" t="n">
+        <v>586738307.5</v>
+      </c>
+      <c r="G588" t="n">
+        <v>583077</v>
+      </c>
+      <c r="H588" t="n">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C589" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D589" t="n">
+        <v>1021.5</v>
+      </c>
+      <c r="E589" t="n">
+        <v>997</v>
+      </c>
+      <c r="F589" t="n">
+        <v>1213093212.5</v>
+      </c>
+      <c r="G589" t="n">
+        <v>1198615</v>
+      </c>
+      <c r="H589" t="n">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C590" t="n">
+        <v>1009</v>
+      </c>
+      <c r="D590" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E590" t="n">
+        <v>992</v>
+      </c>
+      <c r="F590" t="n">
+        <v>1184970660.5</v>
+      </c>
+      <c r="G590" t="n">
+        <v>1174635</v>
+      </c>
+      <c r="H590" t="n">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1017</v>
+      </c>
+      <c r="C591" t="n">
+        <v>1005.5</v>
+      </c>
+      <c r="D591" t="n">
+        <v>1030.5</v>
+      </c>
+      <c r="E591" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F591" t="n">
+        <v>236324736.5</v>
+      </c>
+      <c r="G591" t="n">
+        <v>5</v>
+      </c>
+      <c r="H591" t="n">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>975</v>
+      </c>
+      <c r="C592" t="n">
+        <v>1014.5</v>
+      </c>
+      <c r="D592" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E592" t="n">
+        <v>970</v>
+      </c>
+      <c r="F592" t="n">
+        <v>748776944.5</v>
+      </c>
+      <c r="G592" t="n">
+        <v>756508</v>
+      </c>
+      <c r="H592" t="n">
+        <v>3325</v>
       </c>
     </row>
   </sheetData>

--- a/data/quotes/alua.xlsx
+++ b/data/quotes/alua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H592"/>
+  <dimension ref="A1:H598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,13 +3014,13 @@
         <v>82</v>
       </c>
       <c r="F92" t="n">
-        <v>20204953.3</v>
+        <v>20205777.3</v>
       </c>
       <c r="G92" t="n">
-        <v>7</v>
+        <v>2449</v>
       </c>
       <c r="H92" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93">
@@ -3036,19 +3036,19 @@
         <v>83</v>
       </c>
       <c r="D93" t="n">
-        <v>85.59999999999999</v>
+        <v>85</v>
       </c>
       <c r="E93" t="n">
         <v>82.2</v>
       </c>
       <c r="F93" t="n">
-        <v>49555690.7</v>
+        <v>24371616.9</v>
       </c>
       <c r="G93" t="n">
-        <v>400</v>
+        <v>549</v>
       </c>
       <c r="H93" t="n">
-        <v>833</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94">
@@ -16974,7 +16974,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="C591" t="n">
         <v>1005.5</v>
@@ -16986,13 +16986,13 @@
         <v>1002</v>
       </c>
       <c r="F591" t="n">
-        <v>236324736.5</v>
+        <v>675357046.5</v>
       </c>
       <c r="G591" t="n">
-        <v>5</v>
+        <v>662840</v>
       </c>
       <c r="H591" t="n">
-        <v>1455</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="592">
@@ -17021,6 +17021,174 @@
       </c>
       <c r="H592" t="n">
         <v>3325</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>965.5</v>
+      </c>
+      <c r="C593" t="n">
+        <v>974</v>
+      </c>
+      <c r="D593" t="n">
+        <v>990</v>
+      </c>
+      <c r="E593" t="n">
+        <v>950</v>
+      </c>
+      <c r="F593" t="n">
+        <v>531859639.5</v>
+      </c>
+      <c r="G593" t="n">
+        <v>548496</v>
+      </c>
+      <c r="H593" t="n">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>920.5</v>
+      </c>
+      <c r="C594" t="n">
+        <v>959</v>
+      </c>
+      <c r="D594" t="n">
+        <v>970</v>
+      </c>
+      <c r="E594" t="n">
+        <v>918.5</v>
+      </c>
+      <c r="F594" t="n">
+        <v>927207748.5</v>
+      </c>
+      <c r="G594" t="n">
+        <v>991761</v>
+      </c>
+      <c r="H594" t="n">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>944</v>
+      </c>
+      <c r="C595" t="n">
+        <v>920.5</v>
+      </c>
+      <c r="D595" t="n">
+        <v>972</v>
+      </c>
+      <c r="E595" t="n">
+        <v>920.5</v>
+      </c>
+      <c r="F595" t="n">
+        <v>459299624</v>
+      </c>
+      <c r="G595" t="n">
+        <v>486265</v>
+      </c>
+      <c r="H595" t="n">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>945</v>
+      </c>
+      <c r="C596" t="n">
+        <v>944</v>
+      </c>
+      <c r="D596" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="E596" t="n">
+        <v>930</v>
+      </c>
+      <c r="F596" t="n">
+        <v>216746718</v>
+      </c>
+      <c r="G596" t="n">
+        <v>7410</v>
+      </c>
+      <c r="H596" t="n">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>944</v>
+      </c>
+      <c r="C597" t="n">
+        <v>949</v>
+      </c>
+      <c r="D597" t="n">
+        <v>960</v>
+      </c>
+      <c r="E597" t="n">
+        <v>941.5</v>
+      </c>
+      <c r="F597" t="n">
+        <v>132658873.5</v>
+      </c>
+      <c r="G597" t="n">
+        <v>783</v>
+      </c>
+      <c r="H597" t="n">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>925</v>
+      </c>
+      <c r="C598" t="n">
+        <v>925</v>
+      </c>
+      <c r="D598" t="n">
+        <v>950</v>
+      </c>
+      <c r="E598" t="n">
+        <v>922</v>
+      </c>
+      <c r="F598" t="n">
+        <v>520863287.5</v>
+      </c>
+      <c r="G598" t="n">
+        <v>558780</v>
+      </c>
+      <c r="H598" t="n">
+        <v>2829</v>
       </c>
     </row>
   </sheetData>
